--- a/BazyDanych/ERD_Zadania/ZOO_excel.xlsx
+++ b/BazyDanych/ERD_Zadania/ZOO_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/University/BazyDanych/ERD_Zadania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F5BFE5-5138-CC42-A338-CEACF58CCB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FECBD8-959B-404E-AFC6-FB096149E462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AD342D54-0495-0240-9E1A-021F1F78B94B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <t>Gatunek</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Pracownik_Klatka</t>
   </si>
   <si>
-    <t>id_prac_klat</t>
-  </si>
-  <si>
     <t>Dyrektor</t>
   </si>
   <si>
@@ -329,6 +326,15 @@
   </si>
   <si>
     <t>mała</t>
+  </si>
+  <si>
+    <t>dla zwierząt lądowych</t>
+  </si>
+  <si>
+    <t>dla ptaków</t>
+  </si>
+  <si>
+    <t>dla zwierząt wodnych</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -400,19 +406,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -424,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,9 +438,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +757,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,9 +831,7 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
@@ -859,13 +847,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>50118221</v>
@@ -880,19 +868,17 @@
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2">
         <v>6000</v>
       </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="2">
-        <v>1</v>
+      <c r="R3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -903,13 +889,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G4" s="2">
         <v>502382881</v>
@@ -924,19 +910,17 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2">
         <v>3500</v>
       </c>
-      <c r="P4" s="2">
-        <v>2</v>
-      </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2">
         <v>3</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
+      <c r="R4" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -947,13 +931,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G5" s="2">
         <v>60251841</v>
@@ -968,19 +952,17 @@
         <v>3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2">
         <v>3250</v>
       </c>
-      <c r="P5" s="2">
-        <v>3</v>
-      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2">
         <v>4</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
+      <c r="R5" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -991,16 +973,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1012,19 +994,17 @@
         <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" s="2">
         <v>3150</v>
       </c>
-      <c r="P6" s="2">
-        <v>4</v>
-      </c>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2">
         <v>5</v>
       </c>
-      <c r="R6" s="2">
-        <v>2</v>
+      <c r="R6" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1035,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G7" s="2">
         <v>60751821</v>
@@ -1052,14 +1032,12 @@
       <c r="I7" s="2">
         <v>500</v>
       </c>
-      <c r="P7" s="2">
-        <v>5</v>
-      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2">
         <v>6</v>
       </c>
-      <c r="R7" s="2">
-        <v>2</v>
+      <c r="R7" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1070,16 +1048,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -1087,14 +1065,12 @@
       <c r="I8" s="2">
         <v>300</v>
       </c>
-      <c r="P8" s="2">
-        <v>6</v>
-      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2">
         <v>7</v>
       </c>
-      <c r="R8" s="2">
-        <v>4</v>
+      <c r="R8" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1105,13 +1081,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>450312421</v>
@@ -1122,14 +1098,12 @@
       <c r="I9" s="2">
         <v>150</v>
       </c>
-      <c r="P9" s="2">
-        <v>7</v>
-      </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2">
         <v>8</v>
       </c>
-      <c r="R9" s="2">
-        <v>5</v>
+      <c r="R9" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1140,13 +1114,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G10" s="2">
         <v>808253321</v>
@@ -1157,14 +1131,12 @@
       <c r="I10" s="2">
         <v>50</v>
       </c>
-      <c r="P10" s="2">
-        <v>8</v>
-      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2">
         <v>9</v>
       </c>
-      <c r="R10" s="2">
-        <v>5</v>
+      <c r="R10" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1175,16 +1147,16 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2">
         <v>4</v>
@@ -1192,14 +1164,12 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="2">
-        <v>9</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2">
         <v>8</v>
       </c>
-      <c r="R11" s="2">
-        <v>6</v>
+      <c r="R11" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1209,14 +1179,12 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="2">
-        <v>10</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2">
         <v>9</v>
       </c>
-      <c r="R12" s="2">
-        <v>6</v>
+      <c r="R12" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1235,14 +1203,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="P13" s="2">
-        <v>11</v>
-      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2">
         <v>2</v>
       </c>
-      <c r="R13" s="2">
-        <v>5</v>
+      <c r="R13" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1286,22 +1252,22 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2">
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="2">
-        <v>5</v>
+      <c r="J15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -1316,22 +1282,22 @@
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2">
         <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="2">
-        <v>5</v>
+      <c r="J16" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K16" s="6"/>
     </row>
@@ -1340,22 +1306,22 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2">
         <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2">
         <v>3</v>
       </c>
-      <c r="J17" s="2">
-        <v>5</v>
+      <c r="J17" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1364,22 +1330,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2">
         <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="2">
         <v>4</v>
       </c>
-      <c r="J18" s="2">
-        <v>5</v>
+      <c r="J18" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K18" s="6"/>
     </row>
@@ -1388,24 +1354,24 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2">
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="8"/>
+      <c r="J19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1417,24 +1383,24 @@
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="2">
         <v>5</v>
       </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="K20" s="8"/>
+      <c r="J20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="7"/>
       <c r="L20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1450,32 +1416,32 @@
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2">
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="3">
-        <v>1</v>
+      <c r="J21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.2">
@@ -1483,32 +1449,32 @@
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2">
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="3">
-        <v>2</v>
+      <c r="J22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.2">
@@ -1516,32 +1482,32 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2">
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="2">
         <v>6</v>
       </c>
-      <c r="J23" s="7">
-        <v>6</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="3">
-        <v>3</v>
+      <c r="J23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.2">
@@ -1549,32 +1515,32 @@
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="2">
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2">
         <v>6</v>
       </c>
-      <c r="J24" s="7">
-        <v>6</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="3">
-        <v>4</v>
+      <c r="J24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.2">
@@ -1582,32 +1548,32 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2">
         <v>30</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="2">
         <v>7</v>
       </c>
-      <c r="J25" s="7">
-        <v>5</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="3">
-        <v>5</v>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.2">
@@ -1615,32 +1581,32 @@
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="2">
         <v>30</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="2">
         <v>7</v>
       </c>
-      <c r="J26" s="7">
-        <v>5</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="3">
-        <v>6</v>
+      <c r="J26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.2">
@@ -1648,22 +1614,22 @@
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="2">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="2">
         <v>8</v>
       </c>
-      <c r="J27" s="2">
-        <v>4</v>
+      <c r="J27" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -1672,22 +1638,22 @@
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="2">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="2">
         <v>8</v>
       </c>
-      <c r="J28" s="2">
-        <v>4</v>
+      <c r="J28" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K28" s="6"/>
     </row>
@@ -1696,22 +1662,22 @@
         <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="2">
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="2">
         <v>9</v>
       </c>
-      <c r="J29" s="2">
-        <v>2</v>
+      <c r="J29" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -1720,22 +1686,22 @@
         <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="2">
         <v>11</v>
       </c>
-      <c r="J30" s="2">
-        <v>2</v>
+      <c r="J30" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K30" s="6"/>
     </row>
